--- a/APTAutomationProject/src/com/colt/qa/datalibrary/LANLINK_newTab.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/LANLINK_newTab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>serviceName</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>APT_NonVoiceService</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,99 +456,99 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
